--- a/étude physique/Commande Projet2019.xlsx
+++ b/étude physique/Commande Projet2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Documents\GitHub\projet_pharmacie\étude physique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>Capteur infrarouge 700nm (178-5724)</t>
   </si>
   <si>
-    <t>Amiens, le 28/03/2019</t>
+    <t>rs online</t>
   </si>
   <si>
-    <t>rs online</t>
+    <t>SPX1189-002 </t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
   <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="20">
         <v>29.92</v>
@@ -1145,7 +1145,7 @@
         <v>29.92</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/étude physique/Commande Projet2019.xlsx
+++ b/étude physique/Commande Projet2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Documents\GitHub\projet_pharmacie\étude physique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateur\Kevin\Documents\Projet Pharmacie\projet_pharmacie\étude physique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nom</t>
   </si>
@@ -64,11 +64,20 @@
   <si>
     <t>SPX1189-002 </t>
   </si>
+  <si>
+    <t>HoneyWell Eclipse MS5145</t>
+  </si>
+  <si>
+    <t>2111955</t>
+  </si>
+  <si>
+    <t>www.conrad.fr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -1069,7 +1078,7 @@
   <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,15 +1162,24 @@
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="3">
-        <f>E12*D12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
+        <v>79.989999999999995</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1467,7 +1485,7 @@
       </c>
       <c r="F37" s="17">
         <f>SUM(F11:F36)</f>
-        <v>29.92</v>
+        <v>109.91</v>
       </c>
     </row>
   </sheetData>

--- a/étude physique/Commande Projet2019.xlsx
+++ b/étude physique/Commande Projet2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateur\Kevin\Documents\Projet Pharmacie\projet_pharmacie\étude physique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVALENTINI\Documents\GitHub\projet_pharmacie\étude physique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nom</t>
   </si>
@@ -72,16 +72,28 @@
   </si>
   <si>
     <t>www.conrad.fr</t>
+  </si>
+  <si>
+    <t>UI-1240LE-C-HQ</t>
+  </si>
+  <si>
+    <t>Prix sur demande</t>
+  </si>
+  <si>
+    <t>Caméra UI-1240LE</t>
+  </si>
+  <si>
+    <t>fr.ids-imaging.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +138,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,10 +379,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,8 +465,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1078,18 +1104,18 @@
   <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1186,15 +1212,24 @@
         <f t="shared" ref="A13:A36" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3">
-        <f>E13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="22"/>
+      <c r="B13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1205,10 +1240,7 @@
       <c r="C14" s="29"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="3">
-        <f>E14*D14</f>
-        <v>0</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,10 +1252,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="3">
-        <f>D15*E15</f>
-        <v>0</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,8 +1522,11 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" display="https://fr.ids-imaging.com/store/ui-1240le.html"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/étude physique/Commande Projet2019.xlsx
+++ b/étude physique/Commande Projet2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Nom</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Bon de commande Projet-2019</t>
-  </si>
-  <si>
-    <t>Capteur infrarouge 700nm (178-5724)</t>
-  </si>
-  <si>
-    <t>rs online</t>
-  </si>
-  <si>
-    <t>SPX1189-002 </t>
   </si>
   <si>
     <t>HoneyWell Eclipse MS5145</t>
@@ -459,16 +450,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1104,7 +1095,7 @@
   <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1114,8 @@
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="4" t="s">
@@ -1163,25 +1154,12 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20">
-        <v>29.92</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <f>D11*E11</f>
-        <v>29.92</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1189,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>79.989999999999995</v>
@@ -1204,7 +1182,7 @@
         <v>79.989999999999995</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,22 +1191,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,7 +1492,7 @@
       </c>
       <c r="F37" s="17">
         <f>SUM(F11:F36)</f>
-        <v>109.91</v>
+        <v>79.989999999999995</v>
       </c>
     </row>
   </sheetData>
